--- a/biology/Botanique/Pétale/Pétale.xlsx
+++ b/biology/Botanique/Pétale/Pétale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9tale</t>
+          <t>Pétale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bouton d'or, fleur à cinq pétalesGentiane acaule, fleur à pétales soudésCapitule de marguerite : les fleurons ligulés simulent des pétales blancs
 En botanique, un pétale est une pièce florale qui entoure le système reproducteur des fleurs. Constituant l'un des éléments foliacés dont l'ensemble compose la corolle d'une fleur, il correspond à une feuille modifiée.
-La pigmentation des pétales fait partie, avec le parfum et le nectar, des stratégies d'attraction des pollinisateurs : les couleurs (pas forcément vives) affichées par de grandes fleurs solitaires ou isolées ainsi que par des inflorescences de petites fleurs, sont dues à l'accumulation de pigments qui fournissent un signal optique ou produisent de la chaleur, favorisant la visite des fleurs par les pollinisateurs[1].
+La pigmentation des pétales fait partie, avec le parfum et le nectar, des stratégies d'attraction des pollinisateurs : les couleurs (pas forcément vives) affichées par de grandes fleurs solitaires ou isolées ainsi que par des inflorescences de petites fleurs, sont dues à l'accumulation de pigments qui fournissent un signal optique ou produisent de la chaleur, favorisant la visite des fleurs par les pollinisateurs.
 La corolle est la partie interne du périanthe qui comprend les deux verticilles stériles d'une fleur. Les pétales sont généralement différents des sépales. Lorsqu'ils sont d'aspect identique, on parle de tépales. Dans une fleur complète, les pétales constituent souvent la partie la plus visible et colorée qui entoure les parties fertiles. Le nombre des pétales est un indicateur de la classification des plantes : on en compte généralement quatre ou cinq (le plus souvent) chez les dicotylédones, et trois (ou un multiple de trois) chez les monocotylédones.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9tale</t>
+          <t>Pétale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,11 +528,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parties d'un pétale
-La diagnose distingue trois parties dans un pétale libre complet : le limbe (partie supérieure), la lame (partie intermédiaire) et l'onglet (base du pétale). Le pétale soudé dans une corolle en tube, possède une partie élargie, le limbe, et une gorge[2].
+          <t>Parties d'un pétale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diagnose distingue trois parties dans un pétale libre complet : le limbe (partie supérieure), la lame (partie intermédiaire) et l'onglet (base du pétale). Le pétale soudé dans une corolle en tube, possède une partie élargie, le limbe, et une gorge.
 Chez les plantes de la famille des astéracées (Composées), les fleurons périphériques du capitule ont souvent un ligule très développé simulant un pétale, comme chez la marguerite par exemple. En réalité ces fleurons, qui sont les fleurs élémentaires, ont une corolle soudée en tube à sa partie inférieure, le ligule étant une excroissance latérale.
-Variations
-On constate d'importantes variations de la forme des pétales parmi les plantes à fleurs. Lorsque les pétales sont soudés, la corolle est dite gamopétale. Les pétales peuvent être soudés à la base, formant un « tube floral ». Chez certaines espèces, les pétales sont presque entièrement soudés, formant une sorte d'urne ou de cloche entourant le gynécée et portant les étamines. C'est le cas par exemple des gentianes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pétale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/P%C3%A9tale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On constate d'importantes variations de la forme des pétales parmi les plantes à fleurs. Lorsque les pétales sont soudés, la corolle est dite gamopétale. Les pétales peuvent être soudés à la base, formant un « tube floral ». Chez certaines espèces, les pétales sont presque entièrement soudés, formant une sorte d'urne ou de cloche entourant le gynécée et portant les étamines. C'est le cas par exemple des gentianes.
 Les fleurs de certaines espèces soit n'ont pas de pétales du tout, soit portent des pétales très réduits. Elles sont appelées « apétales ». Des exemples de fleurs à périanthe très réduit peuvent être trouvés notamment chez les arbres à chatons (fagacées par exemple) ou chez les poacées (graminées).
 Lorsque les pétales sont séparés, la corolle est dite dialypétale.
 Les pétales sont généralement la partie la plus apparente de la fleur, et l'ensemble des pétales, ou corolle peut présenter une symétrie radiale ou bilatérale. Si tous les pétales sont à peu près identiques en taille et en forme, la fleur est dite régulière ou actinomorphe (ce qui signifie de forme rayonnante). C'est le cas du bouton d'or par exemple. Beaucoup de fleurs qui présentent une symétrie par rapport à un plan sont dites irrégulières ou zygomorphes. Chez les fleurs irrégulières, d'autre pièces florales peuvent également perdre leur forme régulière, mais ce sont les pétales qui montrent les plus grandes modifications par rapport à la symétrie radiale. Des exemples de fleurs zygomorphes peuvent être trouvés parmi les orchidées et les fabacées (Papilionacées).
@@ -528,34 +580,36 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>P%C3%A9tale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pétale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/P%C3%A9tale</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le périanthe réunit des pièces stériles à la fonction protectrice (sépales et parfois pétales) et attractives (pétales), ces derniers remplissant un rôle vexillaire (expression du botaniste italien Federico Delpino, le vexillum étant l'étendard des armées romaines)[4] pour les animaux pollinisateurs avec lesquels une adaptation réciproque plus ou moins étroite a été progressivement établie (co-évolution des fleurs et des insectes). Les pétales donnent donc le caractère phanérogame (du grec phaneros, « apparent » et gamos, « union »)[5].
-Plusieurs traits des pétales ont été sélectionnés au cours de l'évolution chez les plantes à fleurs phylogénétiquement éloignées, résultant d'adaptations aux divers vecteurs de pollinisation biotiques (pollinisateurs tels que les oiseaux, les abeilles et autres insectes). La convergence de ces traits a abouti à la notion de syndrome de pollinisation. Les principaux traits sont : la coloration, la taille, la forme, le guide de nectar, les nectaires floraux (situés le plus souvent à la base des pétales), les odeurs florales (en)[6] (signal olfactif d'autant plus nécessaire que la fleur est peu visible, nocturne, distante ou cachée) qui contribuent à l'attraction d'éventuels pollinisateurs et leur guidage vers les organes reproducteurs[7],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le périanthe réunit des pièces stériles à la fonction protectrice (sépales et parfois pétales) et attractives (pétales), ces derniers remplissant un rôle vexillaire (expression du botaniste italien Federico Delpino, le vexillum étant l'étendard des armées romaines) pour les animaux pollinisateurs avec lesquels une adaptation réciproque plus ou moins étroite a été progressivement établie (co-évolution des fleurs et des insectes). Les pétales donnent donc le caractère phanérogame (du grec phaneros, « apparent » et gamos, « union »).
+Plusieurs traits des pétales ont été sélectionnés au cours de l'évolution chez les plantes à fleurs phylogénétiquement éloignées, résultant d'adaptations aux divers vecteurs de pollinisation biotiques (pollinisateurs tels que les oiseaux, les abeilles et autres insectes). La convergence de ces traits a abouti à la notion de syndrome de pollinisation. Les principaux traits sont : la coloration, la taille, la forme, le guide de nectar, les nectaires floraux (situés le plus souvent à la base des pétales), les odeurs florales (en) (signal olfactif d'autant plus nécessaire que la fleur est peu visible, nocturne, distante ou cachée) qui contribuent à l'attraction d'éventuels pollinisateurs et leur guidage vers les organes reproducteurs,.
 </t>
         </is>
       </c>
